--- a/results/yq_test/DJ_cz/Rb2Re4/cz_2q_dj_indep_qiskit_44.qasm_rb2_archsize7_mini_dis.xlsx
+++ b/results/yq_test/DJ_cz/Rb2Re4/cz_2q_dj_indep_qiskit_44.qasm_rb2_archsize7_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N97"/>
+  <dimension ref="A1:N98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.05389904975891113</v>
+        <v>0.0005860328674316406</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.04502701759338379</v>
+        <v>0.0005931854248046875</v>
       </c>
     </row>
     <row r="7">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0004827976226806641</v>
+        <v>0.03228211402893066</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[(0, 2), (1, 1), (1, 2), (1, 3), (2, 0), (2, 1), (2, 3), (2, 4), (3, 1), (3, 2), (3, 3), (4, 2), (0, 0), (0, 1), (0, 3), (0, 4), (1, 0), (3, 0), (1, 4), (1, 5), (4, 0), (3, 4), (3, 5), (4, 1), (0, 5), (5, 1), (1, 6), (0, 6), (5, 0), (2, 5), (4, 3), (2, 6), (4, 4), (5, 2), (5, 3), (6, 2), (6, 0), (3, 6), (4, 5), (6, 1), (4, 6), (5, 4), (6, 3), (2, 2)]</t>
+          <t>[[0, 2], [1, 1], [1, 2], [1, 3], [2, 0], [2, 1], [2, 3], [2, 4], [3, 1], [3, 2], [3, 3], [4, 2], [0, 0], [0, 1], [0, 3], [0, 4], [1, 0], [3, 0], [1, 4], [1, 5], [4, 0], [3, 4], [3, 5], [4, 1], [0, 5], [5, 1], [1, 6], [0, 6], [5, 0], [2, 5], [4, 3], [2, 6], [4, 4], [5, 2], [5, 3], [6, 2], [6, 0], [3, 6], [4, 5], [6, 1], [4, 6], [5, 4], [6, 3], [2, 2]]</t>
         </is>
       </c>
     </row>
@@ -732,7 +732,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>[(0, 0), (0, 1), (0, 3), (0, 4), (1, 0), (3, 0), (1, 4), (1, 5), (4, 0), (3, 4), (3, 5), (4, 1), (0, 2), (1, 1), (1, 2), (1, 3), (2, 0), (2, 1), (2, 3), (2, 4), (3, 1), (3, 2), (3, 3), (4, 2), (0, 5), (5, 1), (1, 6), (0, 6), (5, 0), (2, 5), (4, 3), (2, 6), (4, 4), (5, 2), (5, 3), (6, 2), (6, 0), (3, 6), (4, 5), (6, 1), (4, 6), (5, 4), (6, 3), (2, 2)]</t>
+          <t>[[0, 0], [0, 1], [0, 3], [0, 4], [1, 0], [3, 0], [1, 4], [1, 5], [4, 0], [3, 4], [3, 5], [4, 1], [0, 2], [1, 1], [1, 2], [1, 3], [2, 0], [2, 1], [2, 3], [2, 4], [3, 1], [3, 2], [3, 3], [4, 2], [0, 5], [5, 1], [1, 6], [0, 6], [5, 0], [2, 5], [4, 3], [2, 6], [4, 4], [5, 2], [5, 3], [6, 2], [6, 0], [3, 6], [4, 5], [6, 1], [4, 6], [5, 4], [6, 3], [2, 2]]</t>
         </is>
       </c>
     </row>
@@ -971,7 +971,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>[(0, 0), (0, 1), (0, 3), (0, 4), (1, 0), (3, 0), (1, 4), (1, 5), (4, 0), (3, 4), (3, 5), (4, 1), (0, 5), (5, 1), (1, 6), (0, 6), (5, 0), (2, 5), (4, 3), (2, 6), (4, 4), (5, 2), (5, 3), (6, 2), (0, 2), (1, 1), (1, 2), (1, 3), (2, 0), (2, 1), (2, 3), (2, 4), (3, 1), (3, 2), (3, 3), (4, 2), (6, 0), (3, 6), (4, 5), (6, 1), (4, 6), (5, 4), (6, 3), (2, 2)]</t>
+          <t>[[0, 0], [0, 1], [0, 3], [0, 4], [1, 0], [3, 0], [1, 4], [1, 5], [4, 0], [3, 4], [3, 5], [4, 1], [0, 5], [5, 1], [1, 6], [0, 6], [5, 0], [2, 5], [4, 3], [2, 6], [4, 4], [5, 2], [5, 3], [6, 2], [0, 2], [1, 1], [1, 2], [1, 3], [2, 0], [2, 1], [2, 3], [2, 4], [3, 1], [3, 2], [3, 3], [4, 2], [6, 0], [3, 6], [4, 5], [6, 1], [4, 6], [5, 4], [6, 3], [2, 2]]</t>
         </is>
       </c>
     </row>
@@ -1243,7 +1243,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>[(2, 0), (0, 4), (0, 5), (0, 6), (3, 0), (3, 1), (1, 4), (1, 5), (4, 0), (3, 4), (3, 5), (4, 1), (1, 6), (5, 1), (2, 5), (2, 6), (5, 0), (2, 3), (4, 3), (2, 4), (4, 4), (5, 2), (5, 3), (6, 2), (1, 3), (2, 2), (3, 2), (3, 3), (4, 2), (6, 1), (3, 6), (4, 5), (6, 0), (5, 4), (4, 6), (5, 5), (0, 0), (0, 2), (0, 3), (1, 0), (1, 1), (1, 2), (2, 1), (0, 1)]</t>
+          <t>[[2, 0], [0, 4], [0, 5], [0, 6], [3, 0], [3, 1], [1, 4], [1, 5], [4, 0], [3, 4], [3, 5], [4, 1], [1, 6], [5, 1], [2, 5], [2, 6], [5, 0], [2, 3], [4, 3], [2, 4], [4, 4], [5, 2], [5, 3], [6, 2], [1, 3], [2, 2], [3, 2], [3, 3], [4, 2], [6, 1], [3, 6], [4, 5], [6, 0], [5, 4], [4, 6], [5, 5], [0, 0], [0, 2], [0, 3], [1, 0], [1, 1], [1, 2], [2, 1], [0, 1]]</t>
         </is>
       </c>
     </row>
@@ -1319,110 +1319,120 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Movement times</t>
+          <t>move_fidelity</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>36</v>
+        <v>0.9977080873966606</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>parallel times</t>
+          <t>Movement times</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>partitions</t>
+          <t>parallel times</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>4</v>
+        <v>43</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>total time:</t>
+          <t>partitions</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.1366860866546631</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>0.06139492988586426</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B98" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="C98" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="D98" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I97" t="inlineStr">
+      <c r="I98" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J97" t="inlineStr">
+      <c r="J98" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K97" t="inlineStr">
+      <c r="K98" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L97" t="inlineStr">
+      <c r="L98" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M97" t="inlineStr">
+      <c r="M98" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N97" t="inlineStr">
+      <c r="N98" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>
